--- a/tests/fixtures/declarative_schema/invalid.xlsx
+++ b/tests/fixtures/declarative_schema/invalid.xlsx
@@ -4,15 +4,15 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20295" windowHeight="6945" activeTab="1"/>
+    <workbookView windowWidth="28695" windowHeight="13965"/>
   </bookViews>
   <sheets>
-    <sheet name="!README" sheetId="1" r:id="rId1"/>
+    <sheet name="!_Table of contents" sheetId="1" r:id="rId1"/>
     <sheet name="!Child" sheetId="2" r:id="rId2"/>
     <sheet name="!Parent" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'!README'!$A$2:$C$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'!_Table of contents'!$A$2:$C$4</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'!Child'!$A$3:$H$5</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
@@ -183,7 +183,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
   <si>
-    <t>!!SBtab TableID='README' TableName='Readme' Description='Table/model and column/attribute definitions' Date='2019-09-18 00:10:05' SBtabVersion='2.0'</t>
+    <t>!!SBtab TableType='TableOfContents' TableID='Table of contents' TableName='Readme' Description='Table/model and column/attribute definitions' Date='2019-09-18 00:10:05' SBtabVersion='2.0'</t>
   </si>
   <si>
     <t>!Table</t>
@@ -207,7 +207,7 @@
     <t>Represents a parent</t>
   </si>
   <si>
-    <t>!!SBtab TableID='Child' TableName='Child' Description='Represents a child' Date='2019-09-18 00:10:05' SBtabVersion='2.0'</t>
+    <t>!!SBtab TableType='Data' TableID='Child' TableName='Child' Description='Represents a child' Date='2019-09-18 00:10:05' SBtabVersion='2.0'</t>
   </si>
   <si>
     <t>!Quantity</t>
@@ -249,7 +249,7 @@
     <t>small</t>
   </si>
   <si>
-    <t>!!SBtab TableID='Parent' TableName='Parent' Description='Represents a parent' Date='2019-09-18 00:10:05' SBtabVersion='2.0'</t>
+    <t>!!SBtab TableType='Data' TableID='Parent' TableName='Parent' Description='Represents a parent' Date='2019-09-18 00:10:05' SBtabVersion='2.0'</t>
   </si>
 </sst>
 </file>
@@ -257,12 +257,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -293,44 +293,69 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -344,16 +369,43 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -362,74 +414,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -468,181 +461,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -662,17 +655,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -688,39 +675,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -742,15 +696,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -759,148 +704,196 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1273,7 +1266,7 @@
   <sheetPr/>
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -1328,7 +1321,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0" objects="1" scenarios="1"/>
+  <sheetProtection insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
   <autoFilter ref="A2:C4">
     <extLst/>
   </autoFilter>
@@ -1346,10 +1339,10 @@
   <sheetPr/>
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" zeroHeight="1" outlineLevelRow="4" outlineLevelCol="7"/>
@@ -1445,7 +1438,7 @@
       <c r="H5" s="3"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0" objects="1" scenarios="1"/>
+  <sheetProtection insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
   <autoFilter ref="A3:H5">
     <extLst/>
   </autoFilter>
@@ -1456,14 +1449,14 @@
     <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="!Value" error="Value&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="!Value" prompt="Value&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="G4:G5" errorStyle="warning">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="!Name" error="Name&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="!Name" prompt="Name&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="B4:B5" errorStyle="warning">
-      <formula1>255</formula1>
-    </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="!Size" error="Size&#10;&#10;Value must be one of &quot;small&quot;, &quot;medium&quot;, &quot;large&quot;." promptTitle="!Size" prompt="Size&#10;&#10;Select one of &quot;small&quot;, &quot;medium&quot;, &quot;large&quot;.&#10;&#10;Default: &quot;small&quot;." sqref="E4:E5" errorStyle="warning">
       <formula1>"small,medium,large"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="!Formula" error="Empirical formula&#10;&#10;Value must be an empirical formula (e.g. &quot;H2O&quot;)." promptTitle="!Formula" prompt="Empirical formula&#10;&#10;Enter an empirical formula (e.g. &quot;H2O&quot;)." sqref="D4:D5" errorStyle="warning"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="!Parents" error="Parents&#10;&#10;Value must be a comma-separated list of values from &quot;!Parent:1&quot; or blank." promptTitle="!Parents" prompt="Parents&#10;&#10;Enter a comma-separated list of values from &quot;!Parent:1&quot; or blank." sqref="C4:C5" errorStyle="warning"/>
+    <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="!Name" error="Name&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="!Name" prompt="Name&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="B4:B5" errorStyle="warning">
+      <formula1>255</formula1>
+    </dataValidation>
     <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="!Units" error="Units&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="!Units" prompt="Units&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="H4:H5" errorStyle="warning">
       <formula1>255</formula1>
     </dataValidation>
@@ -1518,7 +1511,7 @@
       <c r="B3" s="3"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0" objects="1" scenarios="1"/>
+  <sheetProtection insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
   <dataValidations count="2">
     <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="!Name" error="Name&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="!Name" prompt="Name&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="B3" errorStyle="warning">
       <formula1>255</formula1>

--- a/tests/fixtures/declarative_schema/invalid.xlsx
+++ b/tests/fixtures/declarative_schema/invalid.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13965"/>
+    <workbookView windowWidth="28695" windowHeight="13965" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="!_Table of contents" sheetId="1" r:id="rId1"/>
@@ -183,7 +183,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
   <si>
-    <t>!!SBtab TableType='TableOfContents' TableID='Table of contents' TableName='Readme' Description='Table/model and column/attribute definitions' Date='2019-09-18 00:10:05' SBtabVersion='2.0'</t>
+    <t>!!ObjTables TableType='TableOfContents' TableID='Table of contents' TableName='Readme' Description='Table/model and column/attribute definitions' Date='2019-09-18 00:10:05' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Table</t>
@@ -207,7 +207,7 @@
     <t>Represents a parent</t>
   </si>
   <si>
-    <t>!!SBtab TableType='Data' TableID='Child' TableName='Child' Description='Represents a child' Date='2019-09-18 00:10:05' SBtabVersion='2.0'</t>
+    <t>!!ObjTables TableType='Data' ModelId='Child' ModelName='Child' Description='Represents a child' Date='2019-09-18 00:10:05' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Quantity</t>
@@ -249,7 +249,7 @@
     <t>small</t>
   </si>
   <si>
-    <t>!!SBtab TableType='Data' TableID='Parent' TableName='Parent' Description='Represents a parent' Date='2019-09-18 00:10:05' SBtabVersion='2.0'</t>
+    <t>!!ObjTables TableType='Data' ModelId='Parent' ModelName='Parent' Description='Represents a parent' Date='2019-09-18 00:10:05' ObjTablesVersion='0.0.8'</t>
   </si>
 </sst>
 </file>
@@ -258,9 +258,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -284,15 +284,77 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -300,7 +362,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -314,6 +376,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -322,107 +421,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -461,13 +461,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -479,37 +575,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -521,7 +593,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -533,7 +611,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -545,97 +623,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -655,11 +655,35 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -694,6 +718,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -708,195 +747,156 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1266,7 +1266,7 @@
   <sheetPr/>
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -1449,10 +1449,10 @@
     <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="!Value" error="Value&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="!Value" prompt="Value&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="G4:G5" errorStyle="warning">
       <formula1>255</formula1>
     </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="!Formula" error="Empirical formula&#10;&#10;Value must be an empirical formula (e.g. &quot;H2O&quot;)." promptTitle="!Formula" prompt="Empirical formula&#10;&#10;Enter an empirical formula (e.g. &quot;H2O&quot;)." sqref="D4:D5" errorStyle="warning"/>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="!Size" error="Size&#10;&#10;Value must be one of &quot;small&quot;, &quot;medium&quot;, &quot;large&quot;." promptTitle="!Size" prompt="Size&#10;&#10;Select one of &quot;small&quot;, &quot;medium&quot;, &quot;large&quot;.&#10;&#10;Default: &quot;small&quot;." sqref="E4:E5" errorStyle="warning">
       <formula1>"small,medium,large"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="!Formula" error="Empirical formula&#10;&#10;Value must be an empirical formula (e.g. &quot;H2O&quot;)." promptTitle="!Formula" prompt="Empirical formula&#10;&#10;Enter an empirical formula (e.g. &quot;H2O&quot;)." sqref="D4:D5" errorStyle="warning"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="!Parents" error="Parents&#10;&#10;Value must be a comma-separated list of values from &quot;!Parent:1&quot; or blank." promptTitle="!Parents" prompt="Parents&#10;&#10;Enter a comma-separated list of values from &quot;!Parent:1&quot; or blank." sqref="C4:C5" errorStyle="warning"/>
     <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="!Name" error="Name&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="!Name" prompt="Name&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="B4:B5" errorStyle="warning">
       <formula1>255</formula1>
@@ -1476,12 +1476,12 @@
   <sheetPr/>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" zeroHeight="1" outlineLevelRow="2" outlineLevelCol="1"/>

--- a/tests/fixtures/declarative_schema/invalid.xlsx
+++ b/tests/fixtures/declarative_schema/invalid.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13965" activeTab="2"/>
+    <workbookView windowWidth="20295" windowHeight="6840"/>
   </bookViews>
   <sheets>
     <sheet name="!_Table of contents" sheetId="1" r:id="rId1"/>
@@ -183,7 +183,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
   <si>
-    <t>!!ObjTables TableType='TableOfContents' TableID='Table of contents' TableName='Readme' Description='Table/model and column/attribute definitions' Date='2019-09-18 00:10:05' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='TableOfContents' TableID='Table of contents' TableName='Readme' Description='Table/model and column/attribute definitions' Date='2019-09-18 00:10:05' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Table</t>
@@ -207,7 +207,7 @@
     <t>Represents a parent</t>
   </si>
   <si>
-    <t>!!ObjTables TableType='Data' ModelId='Child' ModelName='Child' Description='Represents a child' Date='2019-09-18 00:10:05' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Child' Name='Child' Description='Represents a child' Date='2019-09-18 00:10:05' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Quantity</t>
@@ -249,7 +249,7 @@
     <t>small</t>
   </si>
   <si>
-    <t>!!ObjTables TableType='Data' ModelId='Parent' ModelName='Parent' Description='Represents a parent' Date='2019-09-18 00:10:05' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Parent' Name='Parent' Description='Represents a parent' Date='2019-09-18 00:10:05' ObjTablesVersion='0.0.8'</t>
   </si>
 </sst>
 </file>
@@ -258,9 +258,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -300,32 +300,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -341,28 +325,50 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -376,53 +382,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -467,19 +467,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -491,157 +629,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -703,17 +703,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -744,179 +738,192 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1266,10 +1273,10 @@
   <sheetPr/>
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A1:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" zeroHeight="1" outlineLevelRow="3" outlineLevelCol="2"/>
@@ -1342,13 +1349,13 @@
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" zeroHeight="1" outlineLevelRow="4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="8" width="15.7083333333333" customWidth="1"/>
-    <col min="9" max="16384" width="9" hidden="1" customWidth="1"/>
+    <col min="1" max="8" width="15.7083333333333" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="4" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:8">
@@ -1364,12 +1371,12 @@
       <c r="H1" s="1"/>
     </row>
     <row r="2" customHeight="1" spans="1:8">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="5" t="s">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="6" t="s">
         <v>9</v>
       </c>
       <c r="G2" s="2" t="s">
@@ -1449,10 +1456,10 @@
     <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="!Value" error="Value&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="!Value" prompt="Value&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="G4:G5" errorStyle="warning">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="!Formula" error="Empirical formula&#10;&#10;Value must be an empirical formula (e.g. &quot;H2O&quot;)." promptTitle="!Formula" prompt="Empirical formula&#10;&#10;Enter an empirical formula (e.g. &quot;H2O&quot;)." sqref="D4:D5" errorStyle="warning"/>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="!Size" error="Size&#10;&#10;Value must be one of &quot;small&quot;, &quot;medium&quot;, &quot;large&quot;." promptTitle="!Size" prompt="Size&#10;&#10;Select one of &quot;small&quot;, &quot;medium&quot;, &quot;large&quot;.&#10;&#10;Default: &quot;small&quot;." sqref="E4:E5" errorStyle="warning">
       <formula1>"small,medium,large"</formula1>
     </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="!Formula" error="Empirical formula&#10;&#10;Value must be an empirical formula (e.g. &quot;H2O&quot;)." promptTitle="!Formula" prompt="Empirical formula&#10;&#10;Enter an empirical formula (e.g. &quot;H2O&quot;)." sqref="D4:D5" errorStyle="warning"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="!Parents" error="Parents&#10;&#10;Value must be a comma-separated list of values from &quot;!Parent:1&quot; or blank." promptTitle="!Parents" prompt="Parents&#10;&#10;Enter a comma-separated list of values from &quot;!Parent:1&quot; or blank." sqref="C4:C5" errorStyle="warning"/>
     <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="!Name" error="Name&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="!Name" prompt="Name&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="B4:B5" errorStyle="warning">
       <formula1>255</formula1>
@@ -1476,12 +1483,12 @@
   <sheetPr/>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A1:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" zeroHeight="1" outlineLevelRow="2" outlineLevelCol="1"/>

--- a/tests/fixtures/declarative_schema/invalid.xlsx
+++ b/tests/fixtures/declarative_schema/invalid.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="6840" windowWidth="20295"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="20295" windowHeight="6840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!_Table of contents" sheetId="1" state="visible" r:id="rId1"/>
@@ -11,8 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Parent" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'!!_Table of contents'!$A$2:$C$4</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">'!!Child'!$A$3:$H$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'!!_Table of contents'!$A$2:$C$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'!!Child'!$A$3:$H$5</definedName>
   </definedNames>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
 </workbook>
@@ -21,9 +21,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
-    <numFmt formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)" numFmtId="164"/>
-    <numFmt formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ " numFmtId="165"/>
-    <numFmt formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ " numFmtId="166"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="166" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -517,230 +517,230 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="29" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="30" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="22" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="19" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="32" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="14" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="35" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="33" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="27" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="34" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="5" fillId="0" fontId="13" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="12" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="23" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="10" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="26" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="7" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="28" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="20" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="25" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="24" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="36" fontId="21" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="21" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="18" fontId="18" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="17" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="16" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="6" fillId="16" fontId="14" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="15" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="8" fillId="31" fontId="0" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="13" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="16" fontId="19" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="9" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="20" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="15" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="165">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="8" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="42">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="17" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="166">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="6" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="11" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="3" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="4" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="5" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
-    <cellStyle builtinId="52" name="60% - Accent6" xfId="1"/>
-    <cellStyle builtinId="51" name="40% - Accent6" xfId="2"/>
-    <cellStyle builtinId="48" name="60% - Accent5" xfId="3"/>
-    <cellStyle builtinId="49" name="Accent6" xfId="4"/>
-    <cellStyle builtinId="47" name="40% - Accent5" xfId="5"/>
-    <cellStyle builtinId="46" name="20% - Accent5" xfId="6"/>
-    <cellStyle builtinId="44" name="60% - Accent4" xfId="7"/>
-    <cellStyle builtinId="45" name="Accent5" xfId="8"/>
-    <cellStyle builtinId="43" name="40% - Accent4" xfId="9"/>
-    <cellStyle builtinId="41" name="Accent4" xfId="10"/>
-    <cellStyle builtinId="24" name="Linked Cell" xfId="11"/>
-    <cellStyle builtinId="39" name="40% - Accent3" xfId="12"/>
-    <cellStyle builtinId="36" name="60% - Accent2" xfId="13"/>
-    <cellStyle builtinId="37" name="Accent3" xfId="14"/>
-    <cellStyle builtinId="35" name="40% - Accent2" xfId="15"/>
-    <cellStyle builtinId="34" name="20% - Accent2" xfId="16"/>
-    <cellStyle builtinId="33" name="Accent2" xfId="17"/>
-    <cellStyle builtinId="31" name="40% - Accent1" xfId="18"/>
-    <cellStyle builtinId="30" name="20% - Accent1" xfId="19"/>
-    <cellStyle builtinId="29" name="Accent1" xfId="20"/>
-    <cellStyle builtinId="28" name="Neutral" xfId="21"/>
-    <cellStyle builtinId="32" name="60% - Accent1" xfId="22"/>
-    <cellStyle builtinId="27" name="Bad" xfId="23"/>
-    <cellStyle builtinId="42" name="20% - Accent4" xfId="24"/>
-    <cellStyle builtinId="25" name="Total" xfId="25"/>
-    <cellStyle builtinId="21" name="Output" xfId="26"/>
-    <cellStyle builtinId="4" name="Currency" xfId="27"/>
-    <cellStyle builtinId="38" name="20% - Accent3" xfId="28"/>
-    <cellStyle builtinId="10" name="Note" xfId="29"/>
-    <cellStyle builtinId="20" name="Input" xfId="30"/>
-    <cellStyle builtinId="19" name="Heading 4" xfId="31"/>
-    <cellStyle builtinId="22" name="Calculation" xfId="32"/>
-    <cellStyle builtinId="26" name="Good" xfId="33"/>
-    <cellStyle builtinId="18" name="Heading 3" xfId="34"/>
-    <cellStyle builtinId="53" name="CExplanatory Text" xfId="35"/>
-    <cellStyle builtinId="16" name="Heading 1" xfId="36"/>
-    <cellStyle builtinId="6" name="Comma [0]" xfId="37"/>
-    <cellStyle builtinId="50" name="20% - Accent6" xfId="38"/>
-    <cellStyle builtinId="15" name="Title" xfId="39"/>
-    <cellStyle builtinId="7" name="Currency [0]" xfId="40"/>
-    <cellStyle builtinId="11" name="Warning Text" xfId="41"/>
-    <cellStyle builtinId="9" name="Followed Hyperlink" xfId="42"/>
-    <cellStyle builtinId="17" name="Heading 2" xfId="43"/>
-    <cellStyle builtinId="3" name="Comma" xfId="44"/>
-    <cellStyle builtinId="23" name="Check Cell" xfId="45"/>
-    <cellStyle builtinId="40" name="60% - Accent3" xfId="46"/>
-    <cellStyle builtinId="5" name="Percent" xfId="47"/>
-    <cellStyle builtinId="8" name="Hyperlink" xfId="48"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -750,7 +750,7 @@
     <author>None</author>
   </authors>
   <commentList>
-    <comment authorId="0" ref="A3" shapeId="0">
+    <comment ref="A3" authorId="0" shapeId="0">
       <text>
         <t>Identifier
 Enter a string.
@@ -758,33 +758,33 @@
 Value must be unique.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B3" shapeId="0">
+    <comment ref="B3" authorId="0" shapeId="0">
       <text>
         <t>Name
 Enter a string.
 Value must be less than or equal to 255 characters.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="C3" shapeId="0">
+    <comment ref="C3" authorId="0" shapeId="0">
       <text>
         <t>Parents
 Enter a comma-separated list of values from "!Parent:1" or blank.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="D3" shapeId="0">
+    <comment ref="D3" authorId="0" shapeId="0">
       <text>
         <t>Empirical formula
 Enter an empirical formula (e.g. "H2O").</t>
       </text>
     </comment>
-    <comment authorId="0" ref="E3" shapeId="0">
+    <comment ref="E3" authorId="0" shapeId="0">
       <text>
         <t>Size
 Select one of "small", "medium", "large".
 Default: "small".</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F3" shapeId="0">
+    <comment ref="F3" authorId="0" shapeId="0">
       <text>
         <t>Identifier
 Enter a string.
@@ -792,14 +792,14 @@
 Value must be unique.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="G3" shapeId="0">
+    <comment ref="G3" authorId="0" shapeId="0">
       <text>
         <t>Value
 Enter a string.
 Value must be less than or equal to 255 characters.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="H3" shapeId="0">
+    <comment ref="H3" authorId="0" shapeId="0">
       <text>
         <t>Units
 Enter a string.
@@ -816,7 +816,7 @@
     <author>None</author>
   </authors>
   <commentList>
-    <comment authorId="0" ref="A2" shapeId="0">
+    <comment ref="A2" authorId="0" shapeId="0">
       <text>
         <t>Identifier
 Enter a string.
@@ -824,7 +824,7 @@
 Value must be unique.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A3" shapeId="0">
+    <comment ref="A3" authorId="0" shapeId="0">
       <text>
         <t>Name
 Enter a string.
@@ -1126,28 +1126,28 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A3" ySplit="2"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A2" pane="bottomLeft" sqref="A1:C4"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A1:C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15" customHeight="1" zeroHeight="1" outlineLevelRow="3"/>
   <cols>
-    <col customWidth="1" max="3" min="1" width="15.7083333333333"/>
-    <col customWidth="1" hidden="1" max="16384" min="4" width="9"/>
+    <col width="15.7083333333333" customWidth="1" min="1" max="3"/>
+    <col hidden="1" width="9" customWidth="1" min="4" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!!ObjTables ObjTablesVersion='0.0.8'</t>
+          <t>!!!ObjTables objTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='TableOfContents' TableID='Table of contents' TableName='Readme' Description='Table/model and column/attribute definitions' Date='2019-09-18 00:10:05' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables type='TableOfContents' tableID='Table of contents' tableName='Readme' description='Table/model and column/attribute definitions' date='2019-09-18 00:10:05' objTablesVersion='0.0.8'</t>
         </is>
       </c>
       <c r="B2" s="1" t="n"/>
@@ -1205,10 +1205,10 @@
   </sheetData>
   <autoFilter ref="A2:C4"/>
   <hyperlinks>
-    <hyperlink display="!Table" location="'!Child'!A1" ref="A2" tooltip="Click to view !child"/>
-    <hyperlink display="Child" location="'!Parent'!A1" ref="A3" tooltip="Click to view !parent"/>
+    <hyperlink ref="A2" location="'!Child'!A1" tooltip="Click to view !child" display="!Table"/>
+    <hyperlink ref="A3" location="'!Parent'!A1" tooltip="Click to view !parent" display="Child"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1221,21 +1221,21 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A4" ySplit="3"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomLeft" sqref="$A1:$XFD1048576"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15" customHeight="1" zeroHeight="1" outlineLevelRow="4"/>
   <cols>
-    <col customWidth="1" max="8" min="1" style="4" width="15.7083333333333"/>
-    <col customWidth="1" hidden="1" max="16384" min="9" style="4" width="9"/>
+    <col width="15.7083333333333" customWidth="1" style="4" min="1" max="8"/>
+    <col hidden="1" width="9" customWidth="1" style="4" min="9" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Data' Id='Child' Name='Child' Description='Represents a child' Date='2019-09-18 00:10:05' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables type='Data' id='Child' name='Child' description='Represents a child' date='2019-09-18 00:10:05' objTablesVersion='0.0.8'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -1350,26 +1350,26 @@
     <mergeCell ref="F2:H2"/>
   </mergeCells>
   <dataValidations count="7">
-    <dataValidation allowBlank="0" error="Value&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." errorStyle="warning" errorTitle="!Value" operator="lessThanOrEqual" prompt="Value&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="!Value" showErrorMessage="1" showInputMessage="1" sqref="G4:G5" type="textLength">
+    <dataValidation sqref="G4:G5" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="!Value" error="Value&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="!Value" prompt="Value&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." type="textLength" errorStyle="warning" operator="lessThanOrEqual">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Size&#10;&#10;Value must be one of &quot;small&quot;, &quot;medium&quot;, &quot;large&quot;." errorStyle="warning" errorTitle="!Size" prompt="Size&#10;&#10;Select one of &quot;small&quot;, &quot;medium&quot;, &quot;large&quot;.&#10;&#10;Default: &quot;small&quot;." promptTitle="!Size" showErrorMessage="1" showInputMessage="1" sqref="E4:E5" type="list">
+    <dataValidation sqref="E4:E5" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="!Size" error="Size&#10;&#10;Value must be one of &quot;small&quot;, &quot;medium&quot;, &quot;large&quot;." promptTitle="!Size" prompt="Size&#10;&#10;Select one of &quot;small&quot;, &quot;medium&quot;, &quot;large&quot;.&#10;&#10;Default: &quot;small&quot;." type="list" errorStyle="warning">
       <formula1>"small,medium,large"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Empirical formula&#10;&#10;Value must be an empirical formula (e.g. &quot;H2O&quot;)." errorStyle="warning" errorTitle="!Formula" prompt="Empirical formula&#10;&#10;Enter an empirical formula (e.g. &quot;H2O&quot;)." promptTitle="!Formula" showErrorMessage="1" showInputMessage="1" sqref="D4:D5"/>
-    <dataValidation allowBlank="0" error="Parents&#10;&#10;Value must be a comma-separated list of values from &quot;!Parent:1&quot; or blank." errorStyle="warning" errorTitle="!Parents" prompt="Parents&#10;&#10;Enter a comma-separated list of values from &quot;!Parent:1&quot; or blank." promptTitle="!Parents" showErrorMessage="1" showInputMessage="1" sqref="C4:C5"/>
-    <dataValidation allowBlank="0" error="Name&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." errorStyle="warning" errorTitle="!Name" operator="lessThanOrEqual" prompt="Name&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="!Name" showErrorMessage="1" showInputMessage="1" sqref="B4:B5" type="textLength">
+    <dataValidation sqref="D4:D5" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="!Formula" error="Empirical formula&#10;&#10;Value must be an empirical formula (e.g. &quot;H2O&quot;)." promptTitle="!Formula" prompt="Empirical formula&#10;&#10;Enter an empirical formula (e.g. &quot;H2O&quot;)." errorStyle="warning"/>
+    <dataValidation sqref="C4:C5" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="!Parents" error="Parents&#10;&#10;Value must be a comma-separated list of values from &quot;!Parent:1&quot; or blank." promptTitle="!Parents" prompt="Parents&#10;&#10;Enter a comma-separated list of values from &quot;!Parent:1&quot; or blank." errorStyle="warning"/>
+    <dataValidation sqref="B4:B5" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="!Name" error="Name&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="!Name" prompt="Name&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." type="textLength" errorStyle="warning" operator="lessThanOrEqual">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Units&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." errorStyle="warning" errorTitle="!Units" operator="lessThanOrEqual" prompt="Units&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="!Units" showErrorMessage="1" showInputMessage="1" sqref="H4:H5" type="textLength">
+    <dataValidation sqref="H4:H5" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="!Units" error="Units&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="!Units" prompt="Units&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." type="textLength" errorStyle="warning" operator="lessThanOrEqual">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Identifier&#10;&#10;Value must be a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10;Value must be unique." errorStyle="warning" errorTitle="!Id" operator="between" prompt="Identifier&#10;&#10;Enter a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10;Value must be unique." promptTitle="!Id" showErrorMessage="1" showInputMessage="1" sqref="A4:A5 F4:F5" type="textLength">
+    <dataValidation sqref="A4:A5 F4:F5" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="!Id" error="Identifier&#10;&#10;Value must be a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10;Value must be unique." promptTitle="!Id" prompt="Identifier&#10;&#10;Enter a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10;Value must be unique." type="textLength" errorStyle="warning" operator="between">
       <formula1>1</formula1>
       <formula2>63</formula2>
     </dataValidation>
   </dataValidations>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
@@ -1383,23 +1383,23 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A1" pane="topRight" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
-      <selection activeCell="A2" pane="bottomRight" sqref="A1:B3"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A1:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15" customHeight="1" zeroHeight="1" outlineLevelRow="2"/>
   <cols>
-    <col customWidth="1" max="2" min="1" width="15.7083333333333"/>
-    <col customWidth="1" hidden="1" max="16384" min="3" width="9"/>
+    <col width="15.7083333333333" customWidth="1" min="1" max="2"/>
+    <col hidden="1" width="9" customWidth="1" min="3" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Data' Id='Parent' Name='Parent' Description='Represents a parent' Date='2019-09-18 00:10:05' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables type='Data' id='Parent' name='Parent' description='Represents a parent' date='2019-09-18 00:10:05' objTablesVersion='0.0.8'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -1426,15 +1426,15 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation allowBlank="0" error="Name&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." errorStyle="warning" errorTitle="!Name" operator="lessThanOrEqual" prompt="Name&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="!Name" showErrorMessage="1" showInputMessage="1" sqref="B3" type="textLength">
+    <dataValidation sqref="B3" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="!Name" error="Name&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="!Name" prompt="Name&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." type="textLength" errorStyle="warning" operator="lessThanOrEqual">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="Identifier&#10;&#10;Value must be a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10;Value must be unique." errorStyle="warning" errorTitle="!Id" operator="between" prompt="Identifier&#10;&#10;Enter a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10;Value must be unique." promptTitle="!Id" showErrorMessage="1" showInputMessage="1" sqref="B2" type="textLength">
+    <dataValidation sqref="B2" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="!Id" error="Identifier&#10;&#10;Value must be a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10;Value must be unique." promptTitle="!Id" prompt="Identifier&#10;&#10;Enter a string.&#10;&#10;Value must be between 1 and 63 characters.&#10;&#10;Value must be unique." type="textLength" errorStyle="warning" operator="between">
       <formula1>1</formula1>
       <formula2>63</formula2>
     </dataValidation>
   </dataValidations>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
--- a/tests/fixtures/declarative_schema/invalid.xlsx
+++ b/tests/fixtures/declarative_schema/invalid.xlsx
@@ -1235,7 +1235,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Child' name='Child' description='Represents a child' date='2019-09-18 00:10:05' objTablesVersion='0.0.8'</t>
+          <t>!!ObjTables type='Data' class='Child' name='Child' description='Represents a child' date='2019-09-18 00:10:05' objTablesVersion='0.0.8'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -1399,7 +1399,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Parent' name='Parent' description='Represents a parent' date='2019-09-18 00:10:05' objTablesVersion='0.0.8'</t>
+          <t>!!ObjTables type='Data' class='Parent' name='Parent' description='Represents a parent' date='2019-09-18 00:10:05' objTablesVersion='0.0.8'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
